--- a/xlsx/绿色_intext.xlsx
+++ b/xlsx/绿色_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t>绿色</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>綠 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_绿色</t>
+    <t>绿 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_绿色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>網頁顏色</t>
+    <t>网页颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RGB</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%89%B2</t>
   </si>
   <si>
-    <t>紅色</t>
+    <t>红色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2</t>
   </si>
   <si>
-    <t>藍色</t>
+    <t>蓝色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CMYK</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%B4%85%E8%89%B2</t>
   </si>
   <si>
-    <t>品紅色</t>
+    <t>品红色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%89%B2</t>
   </si>
   <si>
-    <t>黃色</t>
+    <t>黄色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/HSV%E8%89%B2%E5%BD%A9%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>HSV色彩空間</t>
+    <t>HSV色彩空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E7%9B%B8</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>顏色</t>
+    <t>颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E8%A6%AA%E5%92%8C%E5%8A%9B</t>
   </si>
   <si>
-    <t>網頁親和力</t>
+    <t>网页亲和力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E7%9B%B2</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%A2%E5%B9%95</t>
   </si>
   <si>
-    <t>螢幕</t>
+    <t>萤幕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%95%8C</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E7%B6%A0%E7%B4%A0</t>
   </si>
   <si>
-    <t>葉綠素</t>
+    <t>叶绿素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>漢字文化圈</t>
+    <t>汉字文化圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
+    <t>越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%97</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>綠色和平</t>
+    <t>绿色和平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E4%B9%8B%E5%8F%8B</t>
@@ -215,31 +215,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8</t>
   </si>
   <si>
-    <t>綠黨</t>
+    <t>绿党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A8%93</t>
   </si>
   <si>
-    <t>聖訓</t>
+    <t>圣训</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%8E%E8%8F%B2</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%9E%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛非主義</t>
+    <t>泛非主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%89%B2</t>
@@ -287,49 +287,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%80%B2%E6%AD%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>民主進步黨</t>
+    <t>民主进步党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%B6%A0</t>
   </si>
   <si>
-    <t>泛綠</t>
+    <t>泛绿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E8%97%8D</t>
   </si>
   <si>
-    <t>泛藍</t>
+    <t>泛蓝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D</t>
   </si>
   <si>
-    <t>龍</t>
+    <t>龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B</t>
   </si>
   <si>
-    <t>愛</t>
+    <t>爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%8A%E6%80%A5%E5%87%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>緊急出口</t>
+    <t>紧急出口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%86%9B</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>衛生</t>
+    <t>卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%B6%A0%E4%BA%BA</t>
   </si>
   <si>
-    <t>小綠人</t>
+    <t>小绿人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%98%9F%E4%BA%BA</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>中國文化</t>
+    <t>中国文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%A3%9F%E5%93%81</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭人</t>
+    <t>爱尔兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
@@ -431,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>綠色軟體</t>
+    <t>绿色软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E5%B8%BD%E5%AD%90</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E7%B6%A0</t>
   </si>
   <si>
-    <t>草綠</t>
+    <t>草绿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%A6%84%E7%BB%BF</t>
@@ -473,31 +473,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E6%AF%8D%E7%B6%A0</t>
   </si>
   <si>
-    <t>祖母綠</t>
+    <t>祖母绿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E6%9D%BE%E8%89%B2</t>
   </si>
   <si>
-    <t>綠松色</t>
+    <t>绿松色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E9%9B%80%E7%9F%B3%E7%B6%A0</t>
   </si>
   <si>
-    <t>孔雀石綠</t>
+    <t>孔雀石绿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%BB%E7%B6%A0</t>
   </si>
   <si>
-    <t>鉻綠</t>
+    <t>铬绿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E9%9B%80%E7%B6%A0</t>
   </si>
   <si>
-    <t>孔雀綠</t>
+    <t>孔雀绿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%94%E8%89%B2</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E9%99%BD</t>
   </si>
   <si>
-    <t>陰陽</t>
+    <t>阴阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A1%8C</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%BE%B7%E7%B5%82%E5%A7%8B%E8%AA%AA</t>
   </si>
   <si>
-    <t>五德終始說</t>
+    <t>五德终始说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E8%89%B2</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%BC%E8%89%B2</t>
   </si>
   <si>
-    <t>蒼色</t>
+    <t>苍色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E7%B4%85%E8%89%B2</t>
   </si>
   <si>
-    <t>朱紅色</t>
+    <t>朱红色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2</t>
@@ -575,19 +575,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E8%89%B2</t>
   </si>
   <si>
-    <t>間色</t>
+    <t>间色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%89%E7%B4%85%E8%89%B2</t>
   </si>
   <si>
-    <t>粉紅色</t>
+    <t>粉红色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%A7%E7%B6%A0%E8%89%B2</t>
   </si>
   <si>
-    <t>碧綠色</t>
+    <t>碧绿色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E8%89%B2</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E7%8E%84</t>
   </si>
   <si>
-    <t>鄭玄</t>
+    <t>郑玄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E7%A3%81%E6%B3%A2%E8%B0%B1</t>
@@ -683,9 +683,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2</t>
   </si>
   <si>
-    <t>红色</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E8%89%B2</t>
   </si>
   <si>
@@ -695,9 +692,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E8%89%B2</t>
   </si>
   <si>
-    <t>黄色</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9B%E8%89%B2</t>
   </si>
   <si>
@@ -767,43 +761,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E9%AB%98%E9%A0%BB</t>
   </si>
   <si>
-    <t>極高頻</t>
+    <t>极高频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AB%98%E9%A0%BB</t>
   </si>
   <si>
-    <t>超高頻</t>
+    <t>超高频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%AB%98%E9%A0%BB</t>
   </si>
   <si>
-    <t>特高頻</t>
+    <t>特高频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9A%E9%AB%98%E9%A0%BB</t>
   </si>
   <si>
-    <t>甚高頻</t>
+    <t>甚高频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%A0%BB</t>
   </si>
   <si>
-    <t>高頻</t>
+    <t>高频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%A0%BB</t>
   </si>
   <si>
-    <t>中頻</t>
+    <t>中频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E9%A0%BB</t>
   </si>
   <si>
-    <t>低頻</t>
+    <t>低频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9A%E4%BD%8E%E9%A2%91</t>
@@ -815,19 +809,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E4%BD%8E%E9%A0%BB</t>
   </si>
   <si>
-    <t>特低頻</t>
+    <t>特低频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BD%8E%E9%A0%BB</t>
   </si>
   <si>
-    <t>超低頻</t>
+    <t>超低频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E4%BD%8E%E9%A0%BB</t>
   </si>
   <si>
-    <t>極低頻</t>
+    <t>极低频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%95%BF</t>
@@ -851,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%B3%A2</t>
   </si>
   <si>
-    <t>長波</t>
+    <t>长波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -4700,7 +4694,7 @@
         <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4726,10 +4720,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>222</v>
+      </c>
+      <c r="F121" t="s">
         <v>223</v>
-      </c>
-      <c r="F121" t="s">
-        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4755,10 +4749,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -4813,10 +4807,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4842,10 +4836,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4871,10 +4865,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F126" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4900,10 +4894,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F127" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4929,10 +4923,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4958,10 +4952,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F129" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4987,10 +4981,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5016,10 +5010,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5045,10 +5039,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5074,10 +5068,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5103,10 +5097,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5132,10 +5126,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F135" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5161,10 +5155,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5190,10 +5184,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5219,10 +5213,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5248,10 +5242,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G139" t="n">
         <v>5</v>
@@ -5277,10 +5271,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5306,10 +5300,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G141" t="n">
         <v>5</v>
@@ -5335,10 +5329,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5364,10 +5358,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5393,10 +5387,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5422,10 +5416,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5451,10 +5445,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5480,10 +5474,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5509,10 +5503,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5538,10 +5532,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5567,10 +5561,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -5596,10 +5590,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5625,10 +5619,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F152" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5654,10 +5648,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G153" t="n">
         <v>8</v>
@@ -5683,10 +5677,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>283</v>
+      </c>
+      <c r="F154" t="s">
         <v>285</v>
-      </c>
-      <c r="F154" t="s">
-        <v>287</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
